--- a/DMASE - Debug TVA.xlsx
+++ b/DMASE - Debug TVA.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Area 14" sheetId="1" r:id="rId1"/>
     <sheet name="Area 17" sheetId="2" r:id="rId2"/>
     <sheet name="Area 19" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>x_k</t>
   </si>
@@ -41,6 +43,207 @@
   <si>
     <t>x_k{17}</t>
   </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>Area 2</t>
+  </si>
+  <si>
+    <t>Area 3</t>
+  </si>
+  <si>
+    <t>Area 4</t>
+  </si>
+  <si>
+    <t>Area 5</t>
+  </si>
+  <si>
+    <t>Area 6</t>
+  </si>
+  <si>
+    <t>Area 7</t>
+  </si>
+  <si>
+    <t>Area 8</t>
+  </si>
+  <si>
+    <t>Area 9</t>
+  </si>
+  <si>
+    <t>Area 10</t>
+  </si>
+  <si>
+    <t>Area 11</t>
+  </si>
+  <si>
+    <t>Area 12</t>
+  </si>
+  <si>
+    <t>Area 13</t>
+  </si>
+  <si>
+    <t>Area 14</t>
+  </si>
+  <si>
+    <t>Area 15</t>
+  </si>
+  <si>
+    <t>Area 16</t>
+  </si>
+  <si>
+    <t>Area 17</t>
+  </si>
+  <si>
+    <t>Area 18</t>
+  </si>
+  <si>
+    <t>Area 19</t>
+  </si>
+  <si>
+    <t>Area 20</t>
+  </si>
+  <si>
+    <t>Area Num</t>
+  </si>
+  <si>
+    <t>Area Name</t>
+  </si>
+  <si>
+    <t>AECI</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>CPLW</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>SOCO</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
+  <si>
+    <t>EES</t>
+  </si>
+  <si>
+    <t>ENSE</t>
+  </si>
+  <si>
+    <t>ENCA</t>
+  </si>
+  <si>
+    <t>ENNA</t>
+  </si>
+  <si>
+    <t>ENGL</t>
+  </si>
+  <si>
+    <t>AEP</t>
+  </si>
+  <si>
+    <t>LGEE</t>
+  </si>
+  <si>
+    <t>BREC</t>
+  </si>
+  <si>
+    <t>EKPC</t>
+  </si>
+  <si>
+    <t>AMRN</t>
+  </si>
+  <si>
+    <t>SIPC</t>
+  </si>
+  <si>
+    <t>EEI</t>
+  </si>
+  <si>
+    <t>SWPA</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Ill-conditioned at iter 2</t>
+  </si>
+  <si>
+    <t>Ill-conditioned after iter 2</t>
+  </si>
+  <si>
+    <t>x_k{14}(:,2)</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>x_k{17}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{19}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{1}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{2}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{3}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{4}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{5}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{6}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{7}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{8}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{9}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{10}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{11}(:,2)</t>
+  </si>
+  <si>
+    <t>x_k{12}(:,2)</t>
+  </si>
+  <si>
+    <t>Flagged "Errors"</t>
+  </si>
+  <si>
+    <t>Partition #</t>
+  </si>
+  <si>
+    <t>Area #</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Type (1 = th, 2 = V)</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +271,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -105,12 +320,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,7 +633,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27696,7 +27920,7 @@
   <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31120,4 +31344,7562 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ263"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="11"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="11"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="11"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="11"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="11"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="11"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>4.4762752372343603E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>134</v>
+      </c>
+      <c r="I2">
+        <v>8.0969133468182505E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <v>167</v>
+      </c>
+      <c r="K2">
+        <v>-0.13932672944561</v>
+      </c>
+      <c r="M2" s="11">
+        <v>177</v>
+      </c>
+      <c r="N2">
+        <v>-9.5240455585961295E-2</v>
+      </c>
+      <c r="O2" s="11">
+        <v>184</v>
+      </c>
+      <c r="P2">
+        <v>1.44746761470317E-2</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>6.7802824187931196E-2</v>
+      </c>
+      <c r="U2" s="11">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>135</v>
+      </c>
+      <c r="AC2">
+        <v>149</v>
+      </c>
+      <c r="AE2">
+        <v>179</v>
+      </c>
+      <c r="AG2">
+        <v>144</v>
+      </c>
+      <c r="AI2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="11">
+        <v>152</v>
+      </c>
+      <c r="G3">
+        <v>-4.7355623608015603E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1104</v>
+      </c>
+      <c r="I3">
+        <v>2.0894833046668001E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>169</v>
+      </c>
+      <c r="K3">
+        <v>-0.14975217620258199</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1105</v>
+      </c>
+      <c r="N3">
+        <v>0.25214274776992701</v>
+      </c>
+      <c r="O3" s="11">
+        <v>1359</v>
+      </c>
+      <c r="P3">
+        <v>1.24881164868814E-2</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1.65169949918756E-3</v>
+      </c>
+      <c r="S3" s="11">
+        <v>8</v>
+      </c>
+      <c r="T3">
+        <v>-6.1095116571644398E-3</v>
+      </c>
+      <c r="U3" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>136</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1099</v>
+      </c>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3">
+        <v>1101</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3">
+        <v>1102</v>
+      </c>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="11">
+        <v>153</v>
+      </c>
+      <c r="G4">
+        <v>-4.5360257380687503E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1105</v>
+      </c>
+      <c r="I4">
+        <v>0.28898298450429699</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1274</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-1.29600060024389</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1274</v>
+      </c>
+      <c r="N4">
+        <v>-5.94445527452745E-2</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1435</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1.6047560354440799E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>-5.49196936089494E-3</v>
+      </c>
+      <c r="S4" s="11">
+        <v>14</v>
+      </c>
+      <c r="T4">
+        <v>-0.135506327832176</v>
+      </c>
+      <c r="U4" s="11">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>137</v>
+      </c>
+      <c r="AC4">
+        <v>149</v>
+      </c>
+      <c r="AE4">
+        <v>179</v>
+      </c>
+      <c r="AG4">
+        <v>144</v>
+      </c>
+      <c r="AI4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="11">
+        <v>159</v>
+      </c>
+      <c r="G5">
+        <v>1.5951601209545301E-2</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1116</v>
+      </c>
+      <c r="I5">
+        <v>0.29568139382578701</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1279</v>
+      </c>
+      <c r="K5">
+        <v>-0.68936304603745002</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1276</v>
+      </c>
+      <c r="N5">
+        <v>0.14491964484327999</v>
+      </c>
+      <c r="O5" s="11">
+        <v>184</v>
+      </c>
+      <c r="P5">
+        <v>1.0507648957038001</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>-2.6553475503825499E-2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>-9.0336666112718594E-2</v>
+      </c>
+      <c r="U5" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>138</v>
+      </c>
+      <c r="AC5">
+        <v>1099</v>
+      </c>
+      <c r="AE5">
+        <v>1100</v>
+      </c>
+      <c r="AG5">
+        <v>1101</v>
+      </c>
+      <c r="AI5">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
+        <v>162</v>
+      </c>
+      <c r="G6">
+        <v>2.1780277695986099E-2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1117</v>
+      </c>
+      <c r="I6">
+        <v>0.355607769282069</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1280</v>
+      </c>
+      <c r="K6">
+        <v>-0.14832089130614901</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1285</v>
+      </c>
+      <c r="N6">
+        <v>-4.5619575657474001E-2</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1359</v>
+      </c>
+      <c r="P6">
+        <v>1.03814978461232</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>-3.48650960115807E-3</v>
+      </c>
+      <c r="S6" s="11">
+        <v>16</v>
+      </c>
+      <c r="T6">
+        <v>-9.4696063136227804E-2</v>
+      </c>
+      <c r="U6" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11">
+        <v>167</v>
+      </c>
+      <c r="G7">
+        <v>0.106386217323483</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1160</v>
+      </c>
+      <c r="I7">
+        <v>0.24053677132461401</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1281</v>
+      </c>
+      <c r="K7">
+        <v>-0.18070482916018701</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1291</v>
+      </c>
+      <c r="N7">
+        <v>-6.5943587249459798E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1435</v>
+      </c>
+      <c r="P7">
+        <v>1.05121165296945</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>6.9449255872031906E-2</v>
+      </c>
+      <c r="S7" s="11">
+        <v>17</v>
+      </c>
+      <c r="T7">
+        <v>-0.11571507732817</v>
+      </c>
+      <c r="U7" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11">
+        <v>183</v>
+      </c>
+      <c r="G8">
+        <v>-3.4721780448516898E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1198</v>
+      </c>
+      <c r="I8">
+        <v>0.126042207257862</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1282</v>
+      </c>
+      <c r="K8">
+        <v>-0.180688674876223</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1293</v>
+      </c>
+      <c r="N8">
+        <v>1.7715040177248099E-2</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>-2.07216471714088E-2</v>
+      </c>
+      <c r="S8" s="11">
+        <v>18</v>
+      </c>
+      <c r="T8">
+        <v>-2.6696005495291299E-2</v>
+      </c>
+      <c r="U8" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1104</v>
+      </c>
+      <c r="G9">
+        <v>1.3815742317144499E-3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1274</v>
+      </c>
+      <c r="I9">
+        <v>-7.16733786091453E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1286</v>
+      </c>
+      <c r="K9">
+        <v>-0.17164759451224401</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1294</v>
+      </c>
+      <c r="N9">
+        <v>6.0029248277663198E-2</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>-8.1961103504792406E-3</v>
+      </c>
+      <c r="S9" s="11">
+        <v>19</v>
+      </c>
+      <c r="T9">
+        <v>-7.1363648054118003E-2</v>
+      </c>
+      <c r="U9" s="11">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1105</v>
+      </c>
+      <c r="G10">
+        <v>0.28221320735539202</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1275</v>
+      </c>
+      <c r="I10">
+        <v>-5.27462983113565E-2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1288</v>
+      </c>
+      <c r="K10">
+        <v>0.31365055801337899</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1297</v>
+      </c>
+      <c r="N10">
+        <v>0.118326233555023</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>-2.12525499432373E-2</v>
+      </c>
+      <c r="S10" s="11">
+        <v>20</v>
+      </c>
+      <c r="T10">
+        <v>0.204073948250064</v>
+      </c>
+      <c r="U10" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1113</v>
+      </c>
+      <c r="G11">
+        <v>4.2822235493046902E-2</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1276</v>
+      </c>
+      <c r="I11">
+        <v>0.15108732668302399</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1309</v>
+      </c>
+      <c r="K11">
+        <v>-0.14620546432218501</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1315</v>
+      </c>
+      <c r="N11">
+        <v>-9.5508518096085293E-2</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>-3.4753968287251802E-2</v>
+      </c>
+      <c r="S11" s="11">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>0.197842461955961</v>
+      </c>
+      <c r="U11" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1114</v>
+      </c>
+      <c r="G12">
+        <v>4.0503900931796802E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1277</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.49912322053504</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1310</v>
+      </c>
+      <c r="K12">
+        <v>0.62784222970762904</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1316</v>
+      </c>
+      <c r="N12">
+        <v>-0.112114342651694</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>4.1334521538848402E-2</v>
+      </c>
+      <c r="S12" s="11">
+        <v>36</v>
+      </c>
+      <c r="T12">
+        <v>0.169379189564723</v>
+      </c>
+      <c r="U12" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1115</v>
+      </c>
+      <c r="G13">
+        <v>0.170969099710293</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1278</v>
+      </c>
+      <c r="I13">
+        <v>7.4873117409403195E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1311</v>
+      </c>
+      <c r="K13">
+        <v>-0.221250587639821</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1321</v>
+      </c>
+      <c r="N13">
+        <v>-2.5701281509961E-2</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>4.14762211307503E-2</v>
+      </c>
+      <c r="S13" s="11">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>0.167184116558418</v>
+      </c>
+      <c r="U13" s="11">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1116</v>
+      </c>
+      <c r="G14">
+        <v>0.22761270295410399</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1279</v>
+      </c>
+      <c r="I14">
+        <v>8.0039611006553005E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1312</v>
+      </c>
+      <c r="K14">
+        <v>0.61784326004198897</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1324</v>
+      </c>
+      <c r="N14">
+        <v>-7.1278729757455694E-2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <v>4.1659848978607E-2</v>
+      </c>
+      <c r="S14" s="11">
+        <v>42</v>
+      </c>
+      <c r="T14">
+        <v>0.12265893871311</v>
+      </c>
+      <c r="U14" s="11">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>211</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1117</v>
+      </c>
+      <c r="G15">
+        <v>0.24764097912174499</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1280</v>
+      </c>
+      <c r="I15">
+        <v>7.3969960223637707E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1313</v>
+      </c>
+      <c r="K15">
+        <v>0.620051080424593</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1325</v>
+      </c>
+      <c r="N15">
+        <v>-9.5419277848708905E-2</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>18</v>
+      </c>
+      <c r="R15">
+        <v>-2.7670779852954502E-2</v>
+      </c>
+      <c r="S15" s="11">
+        <v>49</v>
+      </c>
+      <c r="T15">
+        <v>0.25266596856856099</v>
+      </c>
+      <c r="U15" s="11">
+        <v>30</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1118</v>
+      </c>
+      <c r="G16">
+        <v>0.227115815966416</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1281</v>
+      </c>
+      <c r="I16">
+        <v>3.9887519629627201E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1314</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.62292151861468803</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1326</v>
+      </c>
+      <c r="N16">
+        <v>-0.10456537048155599</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>0.20735923083490601</v>
+      </c>
+      <c r="S16" s="11">
+        <v>172</v>
+      </c>
+      <c r="T16">
+        <v>-4.5083950487134899E-2</v>
+      </c>
+      <c r="U16" s="11">
+        <v>31</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1119</v>
+      </c>
+      <c r="G17">
+        <v>5.1283815069639901E-2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1282</v>
+      </c>
+      <c r="I17">
+        <v>3.9877093371512101E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5.6183730614451199E-2</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1327</v>
+      </c>
+      <c r="N17">
+        <v>-5.7719786199702097E-2</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>34</v>
+      </c>
+      <c r="R17">
+        <v>0.19824608266530599</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1104</v>
+      </c>
+      <c r="T17">
+        <v>-7.3353701959335703E-4</v>
+      </c>
+      <c r="U17" s="11">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>1314</v>
+      </c>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>356</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1120</v>
+      </c>
+      <c r="G18">
+        <v>0.14460306373075699</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1283</v>
+      </c>
+      <c r="I18">
+        <v>-5.9414674210120401E-2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>169</v>
+      </c>
+      <c r="K18">
+        <v>1.0528145024050199</v>
+      </c>
+      <c r="M18" s="11">
+        <v>1328</v>
+      </c>
+      <c r="N18">
+        <v>-6.2850899196142798E-2</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>49</v>
+      </c>
+      <c r="R18">
+        <v>0.25118060671887199</v>
+      </c>
+      <c r="S18" s="12">
+        <v>1105</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.272747281167248</v>
+      </c>
+      <c r="U18" s="11">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>361</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1121</v>
+      </c>
+      <c r="G19">
+        <v>-2.3825530058956799E-2</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1284</v>
+      </c>
+      <c r="I19">
+        <v>-6.7572819922771504E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1274</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.201266816345917</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1329</v>
+      </c>
+      <c r="N19">
+        <v>-9.4197270714712594E-2</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>174</v>
+      </c>
+      <c r="R19">
+        <v>-1.35878689722598E-3</v>
+      </c>
+      <c r="S19" s="11">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>1.0294880896838501</v>
+      </c>
+      <c r="U19" s="11">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10">
+        <v>362</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1122</v>
+      </c>
+      <c r="G20">
+        <v>5.51913378069782E-2</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1285</v>
+      </c>
+      <c r="I20">
+        <v>-5.2062536140301499E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1279</v>
+      </c>
+      <c r="K20" s="2">
+        <v>6.7864575170330996E-2</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1330</v>
+      </c>
+      <c r="N20">
+        <v>-7.6911797610657195E-2</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>1104</v>
+      </c>
+      <c r="R20">
+        <v>-2.3664783806821199E-3</v>
+      </c>
+      <c r="S20" s="11">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>1.0134061197019</v>
+      </c>
+      <c r="U20" s="11">
+        <v>35</v>
+      </c>
+      <c r="Y20" s="11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9">
+        <v>515</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1123</v>
+      </c>
+      <c r="G21">
+        <v>0.203928607340087</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1286</v>
+      </c>
+      <c r="I21">
+        <v>5.6192848590947003E-2</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1280</v>
+      </c>
+      <c r="K21">
+        <v>1.0553441333562401</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1331</v>
+      </c>
+      <c r="N21">
+        <v>-6.32775275753657E-2</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>1105</v>
+      </c>
+      <c r="R21">
+        <v>0.273591622450717</v>
+      </c>
+      <c r="S21" s="11">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>1.01240156919104</v>
+      </c>
+      <c r="U21" s="11">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F22" s="11">
+        <v>1124</v>
+      </c>
+      <c r="G22">
+        <v>-2.2126550344831498E-2</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1287</v>
+      </c>
+      <c r="I22">
+        <v>-4.7993168884693398E-2</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1281</v>
+      </c>
+      <c r="K22">
+        <v>1.04511217887276</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1332</v>
+      </c>
+      <c r="N22">
+        <v>-6.64203278216874E-2</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>1107</v>
+      </c>
+      <c r="R22">
+        <v>8.3953372129039004E-3</v>
+      </c>
+      <c r="S22" s="11">
+        <v>15</v>
+      </c>
+      <c r="T22">
+        <v>1.0051619194481101</v>
+      </c>
+      <c r="U22" s="11">
+        <v>37</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F23" s="11">
+        <v>1125</v>
+      </c>
+      <c r="G23">
+        <v>-4.2444531684292602E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1288</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-1.52456917346248</v>
+      </c>
+      <c r="J23" s="11">
+        <v>1282</v>
+      </c>
+      <c r="K23">
+        <v>1.0451674570668199</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1333</v>
+      </c>
+      <c r="N23">
+        <v>-0.116205818413799</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>1108</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1.1501136275912101E-2</v>
+      </c>
+      <c r="S23" s="11">
+        <v>16</v>
+      </c>
+      <c r="T23">
+        <v>1.0080331610058699</v>
+      </c>
+      <c r="U23" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y23" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F24" s="11">
+        <v>1126</v>
+      </c>
+      <c r="G24">
+        <v>-4.5632753659494901E-2</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1289</v>
+      </c>
+      <c r="I24">
+        <v>8.6637955333036698E-2</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1286</v>
+      </c>
+      <c r="K24">
+        <v>1.0326043521769399</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1334</v>
+      </c>
+      <c r="N24">
+        <v>-7.10759745897597E-2</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1.01406471638707</v>
+      </c>
+      <c r="S24" s="11">
+        <v>17</v>
+      </c>
+      <c r="T24">
+        <v>1.0296166129222999</v>
+      </c>
+      <c r="U24" s="11">
+        <v>39</v>
+      </c>
+      <c r="Y24" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F25" s="11">
+        <v>1127</v>
+      </c>
+      <c r="G25">
+        <v>-2.1077737702665401E-2</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1290</v>
+      </c>
+      <c r="I25">
+        <v>0.15090589903265</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1288</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.11003813456881099</v>
+      </c>
+      <c r="M25" s="11">
+        <v>1335</v>
+      </c>
+      <c r="N25">
+        <v>-0.115550923048597</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <v>1.0116304566352501</v>
+      </c>
+      <c r="S25" s="11">
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <v>1.0155764705158401</v>
+      </c>
+      <c r="U25" s="11">
+        <v>40</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F26" s="11">
+        <v>1128</v>
+      </c>
+      <c r="G26">
+        <v>0.14344480813190699</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1291</v>
+      </c>
+      <c r="I26">
+        <v>-7.3863013201691197E-2</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1309</v>
+      </c>
+      <c r="K26">
+        <v>1.05827731978017</v>
+      </c>
+      <c r="M26" s="11">
+        <v>1336</v>
+      </c>
+      <c r="N26">
+        <v>-9.8967657264782904E-2</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>1.0159003993192299</v>
+      </c>
+      <c r="S26" s="11">
+        <v>19</v>
+      </c>
+      <c r="T26">
+        <v>1.00878268683002</v>
+      </c>
+      <c r="U26" s="11">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F27" s="11">
+        <v>1129</v>
+      </c>
+      <c r="G27">
+        <v>7.1150376252453296E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1292</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.49912063741457</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1310</v>
+      </c>
+      <c r="K27" s="2">
+        <v>9.4012803314920401E-2</v>
+      </c>
+      <c r="M27" s="11">
+        <v>1337</v>
+      </c>
+      <c r="N27">
+        <v>-9.8428102043877003E-2</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>1.0044201166978901</v>
+      </c>
+      <c r="S27" s="11">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>1.0695243790578199</v>
+      </c>
+      <c r="U27" s="11">
+        <v>42</v>
+      </c>
+      <c r="Y27" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F28" s="11">
+        <v>1130</v>
+      </c>
+      <c r="G28">
+        <v>4.82928732504629E-2</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1293</v>
+      </c>
+      <c r="I28">
+        <v>1.5466272474857001E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1311</v>
+      </c>
+      <c r="K28" s="2">
+        <v>8.5513514355178497E-2</v>
+      </c>
+      <c r="M28" s="11">
+        <v>1338</v>
+      </c>
+      <c r="N28">
+        <v>-0.12276193885381601</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>1.01022758315399</v>
+      </c>
+      <c r="S28" s="11">
+        <v>34</v>
+      </c>
+      <c r="T28">
+        <v>1.0598839701445899</v>
+      </c>
+      <c r="U28" s="11">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F29" s="11">
+        <v>1131</v>
+      </c>
+      <c r="G29">
+        <v>9.8995888683841404E-2</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1294</v>
+      </c>
+      <c r="I29">
+        <v>5.4617503065065999E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1312</v>
+      </c>
+      <c r="K29" s="2">
+        <v>9.16920336361884E-2</v>
+      </c>
+      <c r="M29" s="11">
+        <v>1339</v>
+      </c>
+      <c r="N29">
+        <v>-0.197119098861714</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>1.0114110672507599</v>
+      </c>
+      <c r="S29" s="11">
+        <v>36</v>
+      </c>
+      <c r="T29">
+        <v>1.03628533475653</v>
+      </c>
+      <c r="U29" s="11">
+        <v>44</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F30" s="11">
+        <v>1132</v>
+      </c>
+      <c r="G30">
+        <v>-5.2551200817566998E-3</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1295</v>
+      </c>
+      <c r="I30">
+        <v>9.9905479640821498E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1313</v>
+      </c>
+      <c r="K30" s="2">
+        <v>9.2569190092755396E-2</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1340</v>
+      </c>
+      <c r="N30">
+        <v>-0.11898465385517901</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>1.02223665615728</v>
+      </c>
+      <c r="S30" s="11">
+        <v>40</v>
+      </c>
+      <c r="T30">
+        <v>1.0398579712612199</v>
+      </c>
+      <c r="U30" s="11">
+        <v>45</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F31" s="11">
+        <v>1133</v>
+      </c>
+      <c r="G31">
+        <v>7.1160353235856901E-3</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1296</v>
+      </c>
+      <c r="I31">
+        <v>7.0753937230172495E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1314</v>
+      </c>
+      <c r="K31" s="2">
+        <v>9.3114519987429797E-2</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1341</v>
+      </c>
+      <c r="N31">
+        <v>-0.11299409374568101</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>1.01990540331793</v>
+      </c>
+      <c r="S31" s="11">
+        <v>42</v>
+      </c>
+      <c r="T31">
+        <v>1.02476749558821</v>
+      </c>
+      <c r="U31" s="11">
+        <v>46</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="F32" s="11">
+        <v>1134</v>
+      </c>
+      <c r="G32">
+        <v>-3.57532661864065E-2</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1297</v>
+      </c>
+      <c r="I32">
+        <v>7.3680418311332999E-2</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1342</v>
+      </c>
+      <c r="N32">
+        <v>-0.136318004661418</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>9</v>
+      </c>
+      <c r="R32">
+        <v>1.0273471537450201</v>
+      </c>
+      <c r="S32" s="11">
+        <v>49</v>
+      </c>
+      <c r="T32">
+        <v>1.0593371184143101</v>
+      </c>
+      <c r="U32" s="11">
+        <v>47</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F33" s="11">
+        <v>1135</v>
+      </c>
+      <c r="G33">
+        <v>-3.7641323357496502E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1298</v>
+      </c>
+      <c r="I33">
+        <v>5.0217533021266497E-2</v>
+      </c>
+      <c r="M33" s="11">
+        <v>1343</v>
+      </c>
+      <c r="N33">
+        <v>-0.15728848840961501</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>10</v>
+      </c>
+      <c r="R33">
+        <v>1.02820673154785</v>
+      </c>
+      <c r="S33" s="11">
+        <v>172</v>
+      </c>
+      <c r="T33">
+        <v>1.0263924243929401</v>
+      </c>
+      <c r="U33" s="11">
+        <v>48</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F34" s="11">
+        <v>1136</v>
+      </c>
+      <c r="G34">
+        <v>-3.5446761368908002E-2</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1301</v>
+      </c>
+      <c r="I34">
+        <v>9.3426978908748598E-2</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1387</v>
+      </c>
+      <c r="N34">
+        <v>3.9720653998579603E-2</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>1.0159260233775</v>
+      </c>
+      <c r="S34" s="11">
+        <v>1104</v>
+      </c>
+      <c r="T34">
+        <v>1.00340370107952</v>
+      </c>
+      <c r="U34" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F35" s="11">
+        <v>1137</v>
+      </c>
+      <c r="G35">
+        <v>0.17520698361476</v>
+      </c>
+      <c r="H35" s="11">
+        <v>1303</v>
+      </c>
+      <c r="I35">
+        <v>7.3673131240132694E-2</v>
+      </c>
+      <c r="M35" s="11">
+        <v>1392</v>
+      </c>
+      <c r="N35">
+        <v>4.2613441237301597E-2</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>12</v>
+      </c>
+      <c r="R35">
+        <v>1.0159816351011199</v>
+      </c>
+      <c r="S35" s="11">
+        <v>1105</v>
+      </c>
+      <c r="T35">
+        <v>1.01544482829349</v>
+      </c>
+      <c r="U35" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F36" s="11">
+        <v>1138</v>
+      </c>
+      <c r="G36">
+        <v>2.1932034513845799E-2</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1309</v>
+      </c>
+      <c r="I36">
+        <v>7.5869865617788801E-2</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1410</v>
+      </c>
+      <c r="N36">
+        <v>-2.4176505223253601E-2</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>13</v>
+      </c>
+      <c r="R36">
+        <v>1.0161127374388399</v>
+      </c>
+      <c r="U36" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F37" s="11">
+        <v>1139</v>
+      </c>
+      <c r="G37">
+        <v>2.1637224310667402E-2</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1310</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-1.5236049317826099</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1415</v>
+      </c>
+      <c r="N37">
+        <v>-0.11523409480894101</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>18</v>
+      </c>
+      <c r="R37">
+        <v>1.0036924229061299</v>
+      </c>
+      <c r="U37" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F38" s="11">
+        <v>1140</v>
+      </c>
+      <c r="G38">
+        <v>-9.0011623545818899E-3</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1311</v>
+      </c>
+      <c r="I38">
+        <v>0.106206833388981</v>
+      </c>
+      <c r="M38" s="11">
+        <v>1417</v>
+      </c>
+      <c r="N38">
+        <v>4.5685415256002698E-2</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>20</v>
+      </c>
+      <c r="R38">
+        <v>1.0490640072200601</v>
+      </c>
+      <c r="U38" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F39" s="11">
+        <v>1141</v>
+      </c>
+      <c r="G39">
+        <v>-8.8233006707523001E-3</v>
+      </c>
+      <c r="H39" s="11">
+        <v>1312</v>
+      </c>
+      <c r="I39">
+        <v>0.172600124760275</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1419</v>
+      </c>
+      <c r="N39">
+        <v>-0.106299019977525</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>34</v>
+      </c>
+      <c r="R39">
+        <v>1.0406400581005499</v>
+      </c>
+      <c r="U39" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F40" s="11">
+        <v>1142</v>
+      </c>
+      <c r="G40">
+        <v>2.8438261704495101E-2</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1321</v>
+      </c>
+      <c r="I40">
+        <v>-3.1242319419503301E-2</v>
+      </c>
+      <c r="M40" s="12">
+        <v>1430</v>
+      </c>
+      <c r="N40" s="3">
+        <v>6.1010781385227898E-2</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>49</v>
+      </c>
+      <c r="R40">
+        <v>1.03891052172597</v>
+      </c>
+      <c r="U40" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="F41" s="11">
+        <v>1143</v>
+      </c>
+      <c r="G41">
+        <v>3.0186248921216199E-2</v>
+      </c>
+      <c r="H41" s="11">
+        <v>1328</v>
+      </c>
+      <c r="I41">
+        <v>-6.9968040096577699E-2</v>
+      </c>
+      <c r="M41" s="11">
+        <v>177</v>
+      </c>
+      <c r="N41">
+        <v>1.01968945178102</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>174</v>
+      </c>
+      <c r="R41">
+        <v>1.01237461496684</v>
+      </c>
+      <c r="U41" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F42" s="11">
+        <v>1144</v>
+      </c>
+      <c r="G42">
+        <v>3.9133809579590798E-2</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1329</v>
+      </c>
+      <c r="I42">
+        <v>-0.10224757281617999</v>
+      </c>
+      <c r="M42" s="11">
+        <v>1105</v>
+      </c>
+      <c r="N42">
+        <v>1.10093152162049</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>1104</v>
+      </c>
+      <c r="R42">
+        <v>0.99369456554012103</v>
+      </c>
+      <c r="U42" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F43" s="11">
+        <v>1145</v>
+      </c>
+      <c r="G43">
+        <v>-2.12736820472633E-2</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1334</v>
+      </c>
+      <c r="I43">
+        <v>-7.8629732906020794E-2</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1274</v>
+      </c>
+      <c r="N43">
+        <v>0.93189457985236901</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>1105</v>
+      </c>
+      <c r="R43">
+        <v>0.995613301175031</v>
+      </c>
+      <c r="U43" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F44" s="11">
+        <v>1146</v>
+      </c>
+      <c r="G44">
+        <v>7.8295920149947906E-2</v>
+      </c>
+      <c r="H44" s="11">
+        <v>1387</v>
+      </c>
+      <c r="I44">
+        <v>2.1613855209751599E-2</v>
+      </c>
+      <c r="M44" s="11">
+        <v>1276</v>
+      </c>
+      <c r="N44">
+        <v>1.0561206331030699</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>1107</v>
+      </c>
+      <c r="R44">
+        <v>1.0440354715484399</v>
+      </c>
+      <c r="U44" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F45" s="11">
+        <v>1147</v>
+      </c>
+      <c r="G45">
+        <v>0.17111695055056</v>
+      </c>
+      <c r="H45" s="11">
+        <v>1392</v>
+      </c>
+      <c r="I45">
+        <v>3.9253027537658802E-2</v>
+      </c>
+      <c r="M45" s="11">
+        <v>1285</v>
+      </c>
+      <c r="N45">
+        <v>1.0335337018263</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>1108</v>
+      </c>
+      <c r="R45">
+        <v>0.94100133098420102</v>
+      </c>
+      <c r="U45" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F46" s="11">
+        <v>1148</v>
+      </c>
+      <c r="G46">
+        <v>0.16814109153873599</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1413</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.4991232286212699</v>
+      </c>
+      <c r="M46" s="11">
+        <v>1291</v>
+      </c>
+      <c r="N46">
+        <v>1.0159844901577499</v>
+      </c>
+      <c r="U46" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F47" s="11">
+        <v>1149</v>
+      </c>
+      <c r="G47">
+        <v>0.15167560314297199</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1419</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1.49912060549743</v>
+      </c>
+      <c r="M47" s="11">
+        <v>1293</v>
+      </c>
+      <c r="N47">
+        <v>1.0445690677533599</v>
+      </c>
+      <c r="U47" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F48" s="11">
+        <v>1150</v>
+      </c>
+      <c r="G48">
+        <v>0.177896547547883</v>
+      </c>
+      <c r="H48" s="11">
+        <v>134</v>
+      </c>
+      <c r="I48">
+        <v>1.0163742408790799</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1294</v>
+      </c>
+      <c r="N48">
+        <v>1.0032740529475801</v>
+      </c>
+      <c r="U48" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F49" s="11">
+        <v>1151</v>
+      </c>
+      <c r="G49">
+        <v>0.16252651351171199</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1104</v>
+      </c>
+      <c r="I49">
+        <v>0.88550104838763399</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1297</v>
+      </c>
+      <c r="N49">
+        <v>0.88664137540583499</v>
+      </c>
+      <c r="U49" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F50" s="11">
+        <v>1152</v>
+      </c>
+      <c r="G50">
+        <v>0.17468168797189901</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1105</v>
+      </c>
+      <c r="I50">
+        <v>1.0266249207158999</v>
+      </c>
+      <c r="M50" s="11">
+        <v>1315</v>
+      </c>
+      <c r="N50">
+        <v>1.0166593696675099</v>
+      </c>
+      <c r="U50" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F51" s="11">
+        <v>1153</v>
+      </c>
+      <c r="G51">
+        <v>0.18395132114636001</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1116</v>
+      </c>
+      <c r="I51">
+        <v>0.97246773073187498</v>
+      </c>
+      <c r="M51" s="11">
+        <v>1316</v>
+      </c>
+      <c r="N51">
+        <v>1.0157923284780701</v>
+      </c>
+      <c r="U51" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F52" s="11">
+        <v>1154</v>
+      </c>
+      <c r="G52">
+        <v>2.4738778915779001E-2</v>
+      </c>
+      <c r="H52" s="11">
+        <v>1117</v>
+      </c>
+      <c r="I52">
+        <v>0.95421240022171405</v>
+      </c>
+      <c r="M52" s="11">
+        <v>1321</v>
+      </c>
+      <c r="N52">
+        <v>1.0062944838690799</v>
+      </c>
+      <c r="U52" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F53" s="11">
+        <v>1155</v>
+      </c>
+      <c r="G53">
+        <v>0.16947275413394999</v>
+      </c>
+      <c r="H53" s="11">
+        <v>1160</v>
+      </c>
+      <c r="I53">
+        <v>0.95402243675541998</v>
+      </c>
+      <c r="M53" s="11">
+        <v>1324</v>
+      </c>
+      <c r="N53">
+        <v>1.0161495418295601</v>
+      </c>
+      <c r="U53" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F54" s="11">
+        <v>1156</v>
+      </c>
+      <c r="G54">
+        <v>7.3093942758528804E-2</v>
+      </c>
+      <c r="H54" s="11">
+        <v>1198</v>
+      </c>
+      <c r="I54">
+        <v>0.910593793349596</v>
+      </c>
+      <c r="M54" s="11">
+        <v>1325</v>
+      </c>
+      <c r="N54">
+        <v>1.0270719901101699</v>
+      </c>
+      <c r="U54" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F55" s="11">
+        <v>1157</v>
+      </c>
+      <c r="G55">
+        <v>3.4439215852478801E-3</v>
+      </c>
+      <c r="H55" s="11">
+        <v>1274</v>
+      </c>
+      <c r="I55">
+        <v>0.96976763621218898</v>
+      </c>
+      <c r="M55" s="11">
+        <v>1326</v>
+      </c>
+      <c r="N55">
+        <v>1.0663160492489301</v>
+      </c>
+      <c r="U55" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F56" s="11">
+        <v>1158</v>
+      </c>
+      <c r="G56">
+        <v>3.8588624278436297E-2</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1275</v>
+      </c>
+      <c r="I56">
+        <v>0.96237840630223004</v>
+      </c>
+      <c r="M56" s="11">
+        <v>1327</v>
+      </c>
+      <c r="N56">
+        <v>1.0334552305124101</v>
+      </c>
+      <c r="U56" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F57" s="11">
+        <v>1159</v>
+      </c>
+      <c r="G57">
+        <v>0.178534558207704</v>
+      </c>
+      <c r="H57" s="11">
+        <v>1276</v>
+      </c>
+      <c r="I57">
+        <v>1.0163832392504899</v>
+      </c>
+      <c r="M57" s="11">
+        <v>1328</v>
+      </c>
+      <c r="N57">
+        <v>1.03271386056294</v>
+      </c>
+      <c r="U57" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F58" s="11">
+        <v>1160</v>
+      </c>
+      <c r="G58">
+        <v>0.183770671127679</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1277</v>
+      </c>
+      <c r="I58" s="2">
+        <v>3621741.1892204201</v>
+      </c>
+      <c r="M58" s="11">
+        <v>1329</v>
+      </c>
+      <c r="N58">
+        <v>1.02839415218434</v>
+      </c>
+      <c r="U58" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F59" s="11">
+        <v>1161</v>
+      </c>
+      <c r="G59">
+        <v>0.121552745317994</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1278</v>
+      </c>
+      <c r="I59">
+        <v>0.98861876990748598</v>
+      </c>
+      <c r="M59" s="11">
+        <v>1330</v>
+      </c>
+      <c r="N59">
+        <v>1.03826038714553</v>
+      </c>
+      <c r="U59" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F60" s="11">
+        <v>1162</v>
+      </c>
+      <c r="G60">
+        <v>2.5892770720869398E-3</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1279</v>
+      </c>
+      <c r="I60">
+        <v>1.0209400618395901</v>
+      </c>
+      <c r="M60" s="11">
+        <v>1331</v>
+      </c>
+      <c r="N60">
+        <v>1.04070151505206</v>
+      </c>
+      <c r="U60" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F61" s="11">
+        <v>1163</v>
+      </c>
+      <c r="G61">
+        <v>0.13018848903922201</v>
+      </c>
+      <c r="H61" s="11">
+        <v>1280</v>
+      </c>
+      <c r="I61">
+        <v>1.0385749890043501</v>
+      </c>
+      <c r="M61" s="11">
+        <v>1332</v>
+      </c>
+      <c r="N61">
+        <v>1.04095095796641</v>
+      </c>
+      <c r="U61" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F62" s="11">
+        <v>1164</v>
+      </c>
+      <c r="G62">
+        <v>-5.7455854229921902E-2</v>
+      </c>
+      <c r="H62" s="11">
+        <v>1281</v>
+      </c>
+      <c r="I62">
+        <v>1.0230870751587899</v>
+      </c>
+      <c r="M62" s="11">
+        <v>1333</v>
+      </c>
+      <c r="N62">
+        <v>1.0048021052571601</v>
+      </c>
+      <c r="U62" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F63" s="11">
+        <v>1165</v>
+      </c>
+      <c r="G63">
+        <v>-4.2350369987608001E-2</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1282</v>
+      </c>
+      <c r="I63">
+        <v>1.0230510245286899</v>
+      </c>
+      <c r="M63" s="11">
+        <v>1334</v>
+      </c>
+      <c r="N63">
+        <v>1.01731560550817</v>
+      </c>
+      <c r="U63" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F64" s="11">
+        <v>1166</v>
+      </c>
+      <c r="G64">
+        <v>-4.2551970517404503E-2</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1283</v>
+      </c>
+      <c r="I64">
+        <v>0.99923800076542202</v>
+      </c>
+      <c r="M64" s="11">
+        <v>1335</v>
+      </c>
+      <c r="N64">
+        <v>1.0239659722910699</v>
+      </c>
+      <c r="U64" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F65" s="11">
+        <v>1167</v>
+      </c>
+      <c r="G65">
+        <v>3.3287669853186798E-2</v>
+      </c>
+      <c r="H65" s="11">
+        <v>1284</v>
+      </c>
+      <c r="I65">
+        <v>0.97777905545924604</v>
+      </c>
+      <c r="M65" s="11">
+        <v>1336</v>
+      </c>
+      <c r="N65">
+        <v>1.02529752692548</v>
+      </c>
+      <c r="U65" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F66" s="11">
+        <v>1168</v>
+      </c>
+      <c r="G66">
+        <v>2.37345531810353E-2</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1285</v>
+      </c>
+      <c r="I66">
+        <v>0.99756976217773796</v>
+      </c>
+      <c r="M66" s="11">
+        <v>1337</v>
+      </c>
+      <c r="N66">
+        <v>1.0321272318754999</v>
+      </c>
+      <c r="U66" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F67" s="11">
+        <v>1169</v>
+      </c>
+      <c r="G67">
+        <v>8.06086573420014E-2</v>
+      </c>
+      <c r="H67" s="11">
+        <v>1286</v>
+      </c>
+      <c r="I67">
+        <v>1.0022589233028001</v>
+      </c>
+      <c r="M67" s="11">
+        <v>1338</v>
+      </c>
+      <c r="N67">
+        <v>1.0149223759458299</v>
+      </c>
+      <c r="U67" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <v>1170</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.52781186122089</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1287</v>
+      </c>
+      <c r="I68">
+        <v>0.96433548542592795</v>
+      </c>
+      <c r="M68" s="11">
+        <v>1339</v>
+      </c>
+      <c r="N68">
+        <v>1.0279249024405299</v>
+      </c>
+      <c r="U68" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F69" s="11">
+        <v>1171</v>
+      </c>
+      <c r="G69">
+        <v>-5.5390906068713601E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1288</v>
+      </c>
+      <c r="I69" s="2">
+        <v>8.8875943119510907</v>
+      </c>
+      <c r="M69" s="11">
+        <v>1340</v>
+      </c>
+      <c r="N69">
+        <v>1.0348713153629301</v>
+      </c>
+      <c r="U69" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F70" s="11">
+        <v>1172</v>
+      </c>
+      <c r="G70">
+        <v>-3.7610781013938797E-2</v>
+      </c>
+      <c r="H70" s="11">
+        <v>1289</v>
+      </c>
+      <c r="I70">
+        <v>0.986630421351533</v>
+      </c>
+      <c r="M70" s="11">
+        <v>1341</v>
+      </c>
+      <c r="N70">
+        <v>1.0155759030642799</v>
+      </c>
+      <c r="U70" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F71" s="11">
+        <v>1173</v>
+      </c>
+      <c r="G71">
+        <v>-5.2853954508008498E-2</v>
+      </c>
+      <c r="H71" s="11">
+        <v>1290</v>
+      </c>
+      <c r="I71">
+        <v>1.0133810002268899</v>
+      </c>
+      <c r="M71" s="11">
+        <v>1342</v>
+      </c>
+      <c r="N71">
+        <v>1.01975195796867</v>
+      </c>
+      <c r="U71" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F72" s="11">
+        <v>1174</v>
+      </c>
+      <c r="G72">
+        <v>-8.1117720457709597E-3</v>
+      </c>
+      <c r="H72" s="11">
+        <v>1291</v>
+      </c>
+      <c r="I72">
+        <v>0.97575119120784404</v>
+      </c>
+      <c r="M72" s="11">
+        <v>1343</v>
+      </c>
+      <c r="N72">
+        <v>1.03643750029985</v>
+      </c>
+      <c r="U72" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F73" s="11">
+        <v>1175</v>
+      </c>
+      <c r="G73">
+        <v>-3.47217591044921E-2</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1292</v>
+      </c>
+      <c r="I73" s="2">
+        <v>435547.44300894102</v>
+      </c>
+      <c r="M73" s="11">
+        <v>1387</v>
+      </c>
+      <c r="N73">
+        <v>0.95409418604165197</v>
+      </c>
+      <c r="U73" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F74" s="11">
+        <v>1176</v>
+      </c>
+      <c r="G74">
+        <v>-6.48300237069281E-2</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1293</v>
+      </c>
+      <c r="I74">
+        <v>1.0019151677356599</v>
+      </c>
+      <c r="M74" s="11">
+        <v>1392</v>
+      </c>
+      <c r="N74">
+        <v>1.0107128521361</v>
+      </c>
+      <c r="U74" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F75" s="11">
+        <v>1177</v>
+      </c>
+      <c r="G75">
+        <v>-6.6227031387534302E-2</v>
+      </c>
+      <c r="H75" s="11">
+        <v>1294</v>
+      </c>
+      <c r="I75">
+        <v>1.0037942057481299</v>
+      </c>
+      <c r="M75" s="11">
+        <v>1410</v>
+      </c>
+      <c r="N75">
+        <v>1.0399065630261699</v>
+      </c>
+      <c r="U75" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F76" s="11">
+        <v>1178</v>
+      </c>
+      <c r="G76">
+        <v>0.12875694057780601</v>
+      </c>
+      <c r="H76" s="11">
+        <v>1295</v>
+      </c>
+      <c r="I76">
+        <v>1.0028708418515</v>
+      </c>
+      <c r="M76" s="11">
+        <v>1415</v>
+      </c>
+      <c r="N76">
+        <v>1.02348680347893</v>
+      </c>
+      <c r="U76" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F77" s="11">
+        <v>1179</v>
+      </c>
+      <c r="G77">
+        <v>-7.74695606923562E-3</v>
+      </c>
+      <c r="H77" s="11">
+        <v>1296</v>
+      </c>
+      <c r="I77">
+        <v>0.99767046259067105</v>
+      </c>
+      <c r="M77" s="11">
+        <v>1417</v>
+      </c>
+      <c r="N77">
+        <v>0.95189131062481902</v>
+      </c>
+      <c r="U77" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F78" s="11">
+        <v>1180</v>
+      </c>
+      <c r="G78">
+        <v>-3.4002331548855597E-2</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1297</v>
+      </c>
+      <c r="I78">
+        <v>1.0020338934067401</v>
+      </c>
+      <c r="M78" s="11">
+        <v>1419</v>
+      </c>
+      <c r="N78">
+        <v>1.01947081665823</v>
+      </c>
+      <c r="U78" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F79" s="11">
+        <v>1181</v>
+      </c>
+      <c r="G79">
+        <v>-6.1580824203570902E-2</v>
+      </c>
+      <c r="H79" s="11">
+        <v>1298</v>
+      </c>
+      <c r="I79">
+        <v>1.00213627582511</v>
+      </c>
+      <c r="M79" s="11">
+        <v>1430</v>
+      </c>
+      <c r="N79">
+        <v>0.96203050943017399</v>
+      </c>
+      <c r="U79" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F80" s="11">
+        <v>1182</v>
+      </c>
+      <c r="G80">
+        <v>-3.4225679648264902E-2</v>
+      </c>
+      <c r="H80" s="11">
+        <v>1301</v>
+      </c>
+      <c r="I80">
+        <v>0.99876270906653797</v>
+      </c>
+      <c r="U80" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F81" s="11">
+        <v>1183</v>
+      </c>
+      <c r="G81">
+        <v>-4.13310246058484E-2</v>
+      </c>
+      <c r="H81" s="11">
+        <v>1303</v>
+      </c>
+      <c r="I81">
+        <v>0.93612772978222802</v>
+      </c>
+      <c r="U81" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F82" s="11">
+        <v>1184</v>
+      </c>
+      <c r="G82">
+        <v>5.3907700249287603E-4</v>
+      </c>
+      <c r="H82" s="11">
+        <v>1309</v>
+      </c>
+      <c r="I82">
+        <v>1.04394472733338</v>
+      </c>
+      <c r="U82" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F83" s="11">
+        <v>1185</v>
+      </c>
+      <c r="G83">
+        <v>2.6602508943205299E-2</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1310</v>
+      </c>
+      <c r="I83" s="2">
+        <v>8.8751226768749998</v>
+      </c>
+      <c r="U83" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F84" s="11">
+        <v>1186</v>
+      </c>
+      <c r="G84">
+        <v>-4.2532512961217399E-2</v>
+      </c>
+      <c r="H84" s="11">
+        <v>1311</v>
+      </c>
+      <c r="I84">
+        <v>0.99608612194544299</v>
+      </c>
+      <c r="U84" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F85" s="11">
+        <v>1187</v>
+      </c>
+      <c r="G85">
+        <v>3.9172218724514901E-2</v>
+      </c>
+      <c r="H85" s="11">
+        <v>1312</v>
+      </c>
+      <c r="I85">
+        <v>1.0447454354949199</v>
+      </c>
+      <c r="U85" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F86" s="11">
+        <v>1188</v>
+      </c>
+      <c r="G86">
+        <v>-6.5785409933393199E-2</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1321</v>
+      </c>
+      <c r="I86">
+        <v>0.96128286395953499</v>
+      </c>
+      <c r="U86" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F87" s="11">
+        <v>1189</v>
+      </c>
+      <c r="G87">
+        <v>0.15193482045117901</v>
+      </c>
+      <c r="H87" s="11">
+        <v>1328</v>
+      </c>
+      <c r="I87">
+        <v>0.99600858264443703</v>
+      </c>
+      <c r="U87" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F88" s="11">
+        <v>1190</v>
+      </c>
+      <c r="G88">
+        <v>0.15193491219351499</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1329</v>
+      </c>
+      <c r="I88">
+        <v>0.97605758570091705</v>
+      </c>
+      <c r="U88" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F89" s="11">
+        <v>1191</v>
+      </c>
+      <c r="G89">
+        <v>0.17396950195813399</v>
+      </c>
+      <c r="H89" s="11">
+        <v>1334</v>
+      </c>
+      <c r="I89">
+        <v>0.97504827329202903</v>
+      </c>
+      <c r="U89" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F90" s="11">
+        <v>1192</v>
+      </c>
+      <c r="G90">
+        <v>0.14754261527829601</v>
+      </c>
+      <c r="H90" s="11">
+        <v>1387</v>
+      </c>
+      <c r="I90">
+        <v>0.85506663377945902</v>
+      </c>
+      <c r="U90" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F91" s="11">
+        <v>1193</v>
+      </c>
+      <c r="G91">
+        <v>0.146982443201473</v>
+      </c>
+      <c r="H91" s="11">
+        <v>1392</v>
+      </c>
+      <c r="I91">
+        <v>0.95724676807020204</v>
+      </c>
+      <c r="U91" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F92" s="11">
+        <v>1194</v>
+      </c>
+      <c r="G92">
+        <v>0.15105156527154801</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1413</v>
+      </c>
+      <c r="I92" s="2">
+        <v>3621741.1292963098</v>
+      </c>
+      <c r="U92" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F93" s="11">
+        <v>1195</v>
+      </c>
+      <c r="G93">
+        <v>0.15101391716586501</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1419</v>
+      </c>
+      <c r="I93" s="2">
+        <v>435547.52114259702</v>
+      </c>
+      <c r="U93" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F94" s="11">
+        <v>1196</v>
+      </c>
+      <c r="G94">
+        <v>5.4624839436594401E-2</v>
+      </c>
+      <c r="U94" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F95" s="11">
+        <v>1198</v>
+      </c>
+      <c r="G95">
+        <v>1.2522664558783E-2</v>
+      </c>
+      <c r="U95" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F96" s="11">
+        <v>1205</v>
+      </c>
+      <c r="G96">
+        <v>5.8305188075955201E-2</v>
+      </c>
+      <c r="U96" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F97" s="11">
+        <v>1211</v>
+      </c>
+      <c r="G97">
+        <v>5.1224288067977302E-3</v>
+      </c>
+      <c r="U97" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F98" s="11">
+        <v>1213</v>
+      </c>
+      <c r="G98">
+        <v>6.74447579398273E-3</v>
+      </c>
+      <c r="U98" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F99" s="11">
+        <v>1220</v>
+      </c>
+      <c r="G99">
+        <v>0.12538596636369601</v>
+      </c>
+      <c r="U99" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F100" s="11">
+        <v>1221</v>
+      </c>
+      <c r="G100">
+        <v>0.18610808797513201</v>
+      </c>
+      <c r="U100" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F101" s="11">
+        <v>1226</v>
+      </c>
+      <c r="G101">
+        <v>1.56755386332171E-2</v>
+      </c>
+      <c r="U101" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F102" s="11">
+        <v>1228</v>
+      </c>
+      <c r="G102">
+        <v>0.15214779430676001</v>
+      </c>
+      <c r="U102" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F103" s="11">
+        <v>1229</v>
+      </c>
+      <c r="G103">
+        <v>0.108839896451681</v>
+      </c>
+      <c r="U103" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F104" s="2">
+        <v>1237</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1.52761712734511</v>
+      </c>
+      <c r="U104" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F105" s="11">
+        <v>1239</v>
+      </c>
+      <c r="G105">
+        <v>-3.7034316980884503E-2</v>
+      </c>
+      <c r="U105" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F106" s="11">
+        <v>1244</v>
+      </c>
+      <c r="G106">
+        <v>0.118596726439058</v>
+      </c>
+      <c r="U106" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F107" s="11">
+        <v>1245</v>
+      </c>
+      <c r="G107">
+        <v>7.7947509755147901E-2</v>
+      </c>
+      <c r="U107" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="108" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F108" s="11">
+        <v>1254</v>
+      </c>
+      <c r="G108">
+        <v>2.6635886581197699E-2</v>
+      </c>
+      <c r="U108" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F109" s="11">
+        <v>1257</v>
+      </c>
+      <c r="G109">
+        <v>0.153473436588596</v>
+      </c>
+      <c r="U109" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F110" s="11">
+        <v>1261</v>
+      </c>
+      <c r="G110">
+        <v>-1.6070597873425699E-2</v>
+      </c>
+      <c r="U110" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F111" s="2">
+        <v>1266</v>
+      </c>
+      <c r="G111" s="2">
+        <v>1.52928371908354</v>
+      </c>
+      <c r="U111" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F112" s="11">
+        <v>1276</v>
+      </c>
+      <c r="G112">
+        <v>0.16993570582798001</v>
+      </c>
+      <c r="U112" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F113" s="11">
+        <v>1290</v>
+      </c>
+      <c r="G113">
+        <v>0.32577737366025</v>
+      </c>
+      <c r="U113" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F114" s="12">
+        <v>1293</v>
+      </c>
+      <c r="G114" s="3">
+        <v>3.2734078788018497E-2</v>
+      </c>
+      <c r="U114" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F115" s="11">
+        <v>150</v>
+      </c>
+      <c r="G115">
+        <v>1.0009731781889299</v>
+      </c>
+      <c r="U115" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F116" s="11">
+        <v>152</v>
+      </c>
+      <c r="G116">
+        <v>0.98369200363438203</v>
+      </c>
+      <c r="U116" s="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F117" s="11">
+        <v>153</v>
+      </c>
+      <c r="G117">
+        <v>0.99414852235867102</v>
+      </c>
+      <c r="U117" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F118" s="11">
+        <v>159</v>
+      </c>
+      <c r="G118">
+        <v>1.0210125476141401</v>
+      </c>
+      <c r="U118" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F119" s="11">
+        <v>162</v>
+      </c>
+      <c r="G119">
+        <v>0.95304699071073395</v>
+      </c>
+      <c r="U119" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F120" s="11">
+        <v>167</v>
+      </c>
+      <c r="G120">
+        <v>1.0316752246676399</v>
+      </c>
+      <c r="U120" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F121" s="11">
+        <v>183</v>
+      </c>
+      <c r="G121">
+        <v>0.99305578440940501</v>
+      </c>
+      <c r="U121" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F122" s="11">
+        <v>1104</v>
+      </c>
+      <c r="G122">
+        <v>0.99307073484660802</v>
+      </c>
+      <c r="U122" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F123" s="11">
+        <v>1105</v>
+      </c>
+      <c r="G123">
+        <v>1.00127693980481</v>
+      </c>
+      <c r="U123" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F124" s="11">
+        <v>1113</v>
+      </c>
+      <c r="G124">
+        <v>0.99732750900679801</v>
+      </c>
+      <c r="U124" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F125" s="11">
+        <v>1114</v>
+      </c>
+      <c r="G125">
+        <v>1.00003412846034</v>
+      </c>
+      <c r="U125" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F126" s="11">
+        <v>1115</v>
+      </c>
+      <c r="G126">
+        <v>0.96814793663322696</v>
+      </c>
+      <c r="U126" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F127" s="11">
+        <v>1116</v>
+      </c>
+      <c r="G127">
+        <v>1.0094102583779401</v>
+      </c>
+      <c r="U127" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F128" s="11">
+        <v>1117</v>
+      </c>
+      <c r="G128">
+        <v>1.0189682388555199</v>
+      </c>
+      <c r="U128" s="11">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="129" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F129" s="11">
+        <v>1118</v>
+      </c>
+      <c r="G129">
+        <v>1.0029544757862301</v>
+      </c>
+      <c r="U129" s="11">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="130" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F130" s="11">
+        <v>1119</v>
+      </c>
+      <c r="G130">
+        <v>0.94168136819622295</v>
+      </c>
+      <c r="U130" s="11">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="131" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F131" s="11">
+        <v>1120</v>
+      </c>
+      <c r="G131">
+        <v>0.98249381458641305</v>
+      </c>
+      <c r="U131" s="11">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="132" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F132" s="11">
+        <v>1121</v>
+      </c>
+      <c r="G132">
+        <v>0.94814715213204703</v>
+      </c>
+      <c r="U132" s="12">
+        <v>1387</v>
+      </c>
+      <c r="V132" s="3"/>
+    </row>
+    <row r="133" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F133" s="11">
+        <v>1122</v>
+      </c>
+      <c r="G133">
+        <v>0.95487032708797703</v>
+      </c>
+      <c r="U133" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F134" s="11">
+        <v>1123</v>
+      </c>
+      <c r="G134">
+        <v>1.02425694204454</v>
+      </c>
+      <c r="U134" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F135" s="11">
+        <v>1124</v>
+      </c>
+      <c r="G135">
+        <v>1.0069675453721101</v>
+      </c>
+      <c r="U135" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F136" s="11">
+        <v>1125</v>
+      </c>
+      <c r="G136">
+        <v>0.99983094732288202</v>
+      </c>
+      <c r="U136" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F137" s="11">
+        <v>1126</v>
+      </c>
+      <c r="G137">
+        <v>0.94913626536571905</v>
+      </c>
+      <c r="U137" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F138" s="11">
+        <v>1127</v>
+      </c>
+      <c r="G138">
+        <v>0.99767999587680201</v>
+      </c>
+      <c r="U138" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F139" s="11">
+        <v>1128</v>
+      </c>
+      <c r="G139">
+        <v>0.98294030093227602</v>
+      </c>
+      <c r="U139" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F140" s="11">
+        <v>1129</v>
+      </c>
+      <c r="G140">
+        <v>0.95346725013549505</v>
+      </c>
+      <c r="U140" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F141" s="11">
+        <v>1130</v>
+      </c>
+      <c r="G141">
+        <v>1.0180704905229301</v>
+      </c>
+      <c r="U141" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F142" s="11">
+        <v>1131</v>
+      </c>
+      <c r="G142">
+        <v>1.02856336429428</v>
+      </c>
+      <c r="U142" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F143" s="11">
+        <v>1132</v>
+      </c>
+      <c r="G143">
+        <v>0.95191133845729303</v>
+      </c>
+      <c r="U143" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="F144" s="11">
+        <v>1133</v>
+      </c>
+      <c r="G144">
+        <v>0.95114257687199499</v>
+      </c>
+      <c r="U144" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="145" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F145" s="11">
+        <v>1134</v>
+      </c>
+      <c r="G145">
+        <v>0.95431596886417902</v>
+      </c>
+      <c r="U145" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="146" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F146" s="11">
+        <v>1135</v>
+      </c>
+      <c r="G146">
+        <v>0.99369075573172005</v>
+      </c>
+      <c r="U146" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F147" s="11">
+        <v>1136</v>
+      </c>
+      <c r="G147">
+        <v>1.0048789142024099</v>
+      </c>
+      <c r="U147" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F148" s="11">
+        <v>1137</v>
+      </c>
+      <c r="G148">
+        <v>1.00568242045267</v>
+      </c>
+      <c r="U148" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F149" s="11">
+        <v>1138</v>
+      </c>
+      <c r="G149">
+        <v>0.95303854598661797</v>
+      </c>
+      <c r="U149" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F150" s="11">
+        <v>1139</v>
+      </c>
+      <c r="G150">
+        <v>0.95304213906753399</v>
+      </c>
+      <c r="U150" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F151" s="11">
+        <v>1140</v>
+      </c>
+      <c r="G151">
+        <v>0.96288429016299903</v>
+      </c>
+      <c r="U151" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F152" s="11">
+        <v>1141</v>
+      </c>
+      <c r="G152">
+        <v>0.96293874946554803</v>
+      </c>
+      <c r="U152" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F153" s="11">
+        <v>1142</v>
+      </c>
+      <c r="G153">
+        <v>1.0125692987114201</v>
+      </c>
+      <c r="U153" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F154" s="11">
+        <v>1143</v>
+      </c>
+      <c r="G154">
+        <v>1.01294243298344</v>
+      </c>
+      <c r="U154" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F155" s="11">
+        <v>1144</v>
+      </c>
+      <c r="G155">
+        <v>1.00965542787337</v>
+      </c>
+      <c r="U155" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F156" s="11">
+        <v>1145</v>
+      </c>
+      <c r="G156">
+        <v>0.99765727417535199</v>
+      </c>
+      <c r="U156" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F157" s="11">
+        <v>1146</v>
+      </c>
+      <c r="G157">
+        <v>1.0150365022507799</v>
+      </c>
+      <c r="U157" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F158" s="11">
+        <v>1147</v>
+      </c>
+      <c r="G158">
+        <v>1.0070225857696</v>
+      </c>
+      <c r="U158" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F159" s="11">
+        <v>1148</v>
+      </c>
+      <c r="G159">
+        <v>0.99787910692613901</v>
+      </c>
+      <c r="U159" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F160" s="11">
+        <v>1149</v>
+      </c>
+      <c r="G160">
+        <v>0.99433636832901895</v>
+      </c>
+      <c r="U160" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F161" s="11">
+        <v>1150</v>
+      </c>
+      <c r="G161">
+        <v>1.0052819308978</v>
+      </c>
+      <c r="U161" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F162" s="11">
+        <v>1151</v>
+      </c>
+      <c r="G162">
+        <v>0.989993150720751</v>
+      </c>
+      <c r="U162" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F163" s="11">
+        <v>1152</v>
+      </c>
+      <c r="G163">
+        <v>1.0097991480753099</v>
+      </c>
+      <c r="U163" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F164" s="11">
+        <v>1153</v>
+      </c>
+      <c r="G164">
+        <v>1.01218141505352</v>
+      </c>
+      <c r="U164" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F165" s="11">
+        <v>1154</v>
+      </c>
+      <c r="G165">
+        <v>1.00604962328142</v>
+      </c>
+      <c r="U165" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F166" s="11">
+        <v>1155</v>
+      </c>
+      <c r="G166">
+        <v>0.99880753580072901</v>
+      </c>
+      <c r="U166" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="167" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F167" s="11">
+        <v>1156</v>
+      </c>
+      <c r="G167">
+        <v>1.02316936120705</v>
+      </c>
+      <c r="U167" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F168" s="11">
+        <v>1157</v>
+      </c>
+      <c r="G168">
+        <v>1.0087340739983901</v>
+      </c>
+      <c r="U168" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F169" s="11">
+        <v>1158</v>
+      </c>
+      <c r="G169">
+        <v>0.99442169085618404</v>
+      </c>
+      <c r="U169" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="170" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F170" s="11">
+        <v>1159</v>
+      </c>
+      <c r="G170">
+        <v>1.00479336352686</v>
+      </c>
+      <c r="U170" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F171" s="11">
+        <v>1160</v>
+      </c>
+      <c r="G171">
+        <v>1.0058164506999001</v>
+      </c>
+      <c r="U171" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="172" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F172" s="11">
+        <v>1161</v>
+      </c>
+      <c r="G172">
+        <v>0.99953412490030003</v>
+      </c>
+      <c r="U172" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F173" s="11">
+        <v>1162</v>
+      </c>
+      <c r="G173">
+        <v>0.94378306304304005</v>
+      </c>
+      <c r="U173" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F174" s="11">
+        <v>1163</v>
+      </c>
+      <c r="G174">
+        <v>0.98873630570400495</v>
+      </c>
+      <c r="U174" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F175" s="11">
+        <v>1164</v>
+      </c>
+      <c r="G175">
+        <v>0.985682549397918</v>
+      </c>
+      <c r="U175" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F176" s="11">
+        <v>1165</v>
+      </c>
+      <c r="G176">
+        <v>1.0125207976691899</v>
+      </c>
+      <c r="U176" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F177" s="11">
+        <v>1166</v>
+      </c>
+      <c r="G177">
+        <v>1.01221112545938</v>
+      </c>
+      <c r="U177" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F178" s="11">
+        <v>1167</v>
+      </c>
+      <c r="G178">
+        <v>0.94154876970262902</v>
+      </c>
+      <c r="U178" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F179" s="11">
+        <v>1168</v>
+      </c>
+      <c r="G179">
+        <v>1.0174784463956601</v>
+      </c>
+      <c r="U179" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F180" s="11">
+        <v>1169</v>
+      </c>
+      <c r="G180">
+        <v>1.02250416374431</v>
+      </c>
+      <c r="U180" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F181" s="2">
+        <v>1170</v>
+      </c>
+      <c r="G181" s="2">
+        <v>11.9099108708452</v>
+      </c>
+      <c r="U181" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F182" s="11">
+        <v>1171</v>
+      </c>
+      <c r="G182">
+        <v>1.0074294114073801</v>
+      </c>
+      <c r="U182" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F183" s="11">
+        <v>1172</v>
+      </c>
+      <c r="G183">
+        <v>0.94673484461204505</v>
+      </c>
+      <c r="U183" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F184" s="11">
+        <v>1173</v>
+      </c>
+      <c r="G184">
+        <v>0.96864663820600805</v>
+      </c>
+      <c r="U184" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F185" s="11">
+        <v>1174</v>
+      </c>
+      <c r="G185">
+        <v>0.943525470624622</v>
+      </c>
+      <c r="U185" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F186" s="11">
+        <v>1175</v>
+      </c>
+      <c r="G186">
+        <v>0.99305589110807901</v>
+      </c>
+      <c r="U186" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F187" s="11">
+        <v>1176</v>
+      </c>
+      <c r="G187">
+        <v>1.0099963836069901</v>
+      </c>
+      <c r="U187" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="188" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F188" s="11">
+        <v>1177</v>
+      </c>
+      <c r="G188">
+        <v>0.99927934314896905</v>
+      </c>
+      <c r="U188" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="189" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F189" s="11">
+        <v>1178</v>
+      </c>
+      <c r="G189">
+        <v>0.99442614299946697</v>
+      </c>
+      <c r="U189" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F190" s="11">
+        <v>1179</v>
+      </c>
+      <c r="G190">
+        <v>0.94387551140302395</v>
+      </c>
+      <c r="U190" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F191" s="11">
+        <v>1180</v>
+      </c>
+      <c r="G191">
+        <v>0.959974397147489</v>
+      </c>
+      <c r="U191" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="192" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F192" s="11">
+        <v>1181</v>
+      </c>
+      <c r="G192">
+        <v>0.99750916462503902</v>
+      </c>
+      <c r="U192" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="193" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F193" s="11">
+        <v>1182</v>
+      </c>
+      <c r="G193">
+        <v>0.94054414271390496</v>
+      </c>
+      <c r="U193" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F194" s="11">
+        <v>1183</v>
+      </c>
+      <c r="G194">
+        <v>0.99129232557846303</v>
+      </c>
+      <c r="U194" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F195" s="11">
+        <v>1184</v>
+      </c>
+      <c r="G195">
+        <v>1.00698946877308</v>
+      </c>
+      <c r="U195" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F196" s="11">
+        <v>1185</v>
+      </c>
+      <c r="G196">
+        <v>0.98180369376154097</v>
+      </c>
+      <c r="U196" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="197" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F197" s="11">
+        <v>1186</v>
+      </c>
+      <c r="G197">
+        <v>1.01256218874779</v>
+      </c>
+      <c r="U197" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F198" s="11">
+        <v>1187</v>
+      </c>
+      <c r="G198">
+        <v>1.00105549805848</v>
+      </c>
+      <c r="U198" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F199" s="11">
+        <v>1188</v>
+      </c>
+      <c r="G199">
+        <v>1.00854566261973</v>
+      </c>
+      <c r="U199" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F200" s="11">
+        <v>1189</v>
+      </c>
+      <c r="G200">
+        <v>0.99411119733034703</v>
+      </c>
+      <c r="U200" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F201" s="11">
+        <v>1190</v>
+      </c>
+      <c r="G201">
+        <v>0.994111227548098</v>
+      </c>
+      <c r="U201" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="202" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F202" s="11">
+        <v>1191</v>
+      </c>
+      <c r="G202">
+        <v>1.01016923088898</v>
+      </c>
+      <c r="U202" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="203" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F203" s="11">
+        <v>1192</v>
+      </c>
+      <c r="G203">
+        <v>0.99653300535864897</v>
+      </c>
+      <c r="U203" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F204" s="11">
+        <v>1193</v>
+      </c>
+      <c r="G204">
+        <v>1.0032853160278701</v>
+      </c>
+      <c r="U204" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F205" s="11">
+        <v>1194</v>
+      </c>
+      <c r="G205">
+        <v>0.99423371457028697</v>
+      </c>
+      <c r="U205" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="206" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F206" s="11">
+        <v>1195</v>
+      </c>
+      <c r="G206">
+        <v>0.99430031020405596</v>
+      </c>
+      <c r="U206" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F207" s="11">
+        <v>1196</v>
+      </c>
+      <c r="G207">
+        <v>0.95458556744452305</v>
+      </c>
+      <c r="U207" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="208" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F208" s="11">
+        <v>1198</v>
+      </c>
+      <c r="G208">
+        <v>1.00301824303403</v>
+      </c>
+      <c r="U208" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="209" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F209" s="11">
+        <v>1205</v>
+      </c>
+      <c r="G209">
+        <v>1.01826777707571</v>
+      </c>
+      <c r="U209" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F210" s="11">
+        <v>1211</v>
+      </c>
+      <c r="G210">
+        <v>1.00823780328655</v>
+      </c>
+      <c r="U210" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F211" s="11">
+        <v>1213</v>
+      </c>
+      <c r="G211">
+        <v>0.88991254422276</v>
+      </c>
+      <c r="U211" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F212" s="11">
+        <v>1220</v>
+      </c>
+      <c r="G212">
+        <v>0.98760051598214005</v>
+      </c>
+      <c r="U212" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="213" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F213" s="11">
+        <v>1221</v>
+      </c>
+      <c r="G213">
+        <v>1.0197655875967</v>
+      </c>
+      <c r="U213" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="214" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F214" s="11">
+        <v>1226</v>
+      </c>
+      <c r="G214">
+        <v>1.0082945807436701</v>
+      </c>
+      <c r="U214" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F215" s="11">
+        <v>1228</v>
+      </c>
+      <c r="G215">
+        <v>0.98973948448684401</v>
+      </c>
+      <c r="U215" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="216" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F216" s="11">
+        <v>1229</v>
+      </c>
+      <c r="G216">
+        <v>0.97301277255132401</v>
+      </c>
+      <c r="U216" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F217" s="2">
+        <v>1237</v>
+      </c>
+      <c r="G217" s="2">
+        <v>11.911548988887301</v>
+      </c>
+      <c r="U217" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="218" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F218" s="11">
+        <v>1239</v>
+      </c>
+      <c r="G218">
+        <v>0.94679149261632201</v>
+      </c>
+      <c r="U218" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F219" s="11">
+        <v>1244</v>
+      </c>
+      <c r="G219">
+        <v>0.95110419201345797</v>
+      </c>
+      <c r="U219" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="220" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F220" s="11">
+        <v>1245</v>
+      </c>
+      <c r="G220">
+        <v>1.04725212609982</v>
+      </c>
+      <c r="U220" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="221" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F221" s="11">
+        <v>1254</v>
+      </c>
+      <c r="G221">
+        <v>0.98304387722702302</v>
+      </c>
+      <c r="U221" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="222" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F222" s="11">
+        <v>1257</v>
+      </c>
+      <c r="G222">
+        <v>1.0154983292843001</v>
+      </c>
+      <c r="U222" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="223" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F223" s="11">
+        <v>1261</v>
+      </c>
+      <c r="G223">
+        <v>0.967767591237923</v>
+      </c>
+      <c r="U223" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="224" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F224" s="2">
+        <v>1266</v>
+      </c>
+      <c r="G224" s="2">
+        <v>11.9444317693071</v>
+      </c>
+      <c r="U224" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="225" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F225" s="11">
+        <v>1276</v>
+      </c>
+      <c r="G225">
+        <v>0.947711804652974</v>
+      </c>
+      <c r="U225" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="226" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F226" s="11">
+        <v>1290</v>
+      </c>
+      <c r="G226">
+        <v>0.72971491096405605</v>
+      </c>
+      <c r="U226" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F227" s="11">
+        <v>1293</v>
+      </c>
+      <c r="G227">
+        <v>0.80288553595939804</v>
+      </c>
+      <c r="U227" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="228" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U228" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="229" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U229" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="230" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U230" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="231" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U231" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="232" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U232" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U233" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U234" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U235" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="236" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U236" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="237" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U237" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="238" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U238" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="239" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U239" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="240" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="U240" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="241" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U241" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="242" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U242" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="243" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U243" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="244" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U244" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="245" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U245" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="246" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U246" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="247" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U247" s="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="248" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U248" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U249" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="250" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U250" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="251" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U251" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="252" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U252" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="253" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U253" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="254" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U254" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="255" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U255" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="256" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U256" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="257" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U257" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="258" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U258" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="259" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U259" s="11">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="260" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U260" s="11">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="261" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U261" s="11">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="262" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U262" s="11">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="263" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U263" s="11">
+        <v>1387</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection sqref="A1:E158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>-0.34556500750823999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.53668703677191798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>146</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.60690368769207903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>146</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.63140566837369905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.69974916640374096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.598180950923624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.50413909820580505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>146</v>
+      </c>
+      <c r="C10">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.550010326037636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>146</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.59175218984278499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>146</v>
+      </c>
+      <c r="C12">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.55379642506120197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>146</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.51636309656455803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>146</v>
+      </c>
+      <c r="C14">
+        <v>94</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.51628634777287896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>146</v>
+      </c>
+      <c r="C15">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.63004893972082099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>146</v>
+      </c>
+      <c r="C16">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.50346606911710501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>146</v>
+      </c>
+      <c r="C17">
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.529995461844744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>146</v>
+      </c>
+      <c r="C18">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.50828181323697896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.51765870679676396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>146</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.50879782867650003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>146</v>
+      </c>
+      <c r="C21">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.52643199925081796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>103</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.52642369119752297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>146</v>
+      </c>
+      <c r="C23">
+        <v>110</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.50306813302193099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>146</v>
+      </c>
+      <c r="C24">
+        <v>118</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.51411857395135896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>146</v>
+      </c>
+      <c r="C25">
+        <v>119</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.528905226400183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>146</v>
+      </c>
+      <c r="C26">
+        <v>126</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.55069512020255096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>127</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.55039340237679502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>146</v>
+      </c>
+      <c r="C28">
+        <v>131</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.51360650421882303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>146</v>
+      </c>
+      <c r="C29">
+        <v>132</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.527930292455837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>146</v>
+      </c>
+      <c r="C30">
+        <v>160</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.53434760400537595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <v>1105</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0.38028419123611701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>146</v>
+      </c>
+      <c r="C32">
+        <v>1387</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>-6.3839203780379798E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>147</v>
+      </c>
+      <c r="C33">
+        <v>212</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>-0.50884056560990498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>147</v>
+      </c>
+      <c r="C34">
+        <v>320</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.61047128901682701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>147</v>
+      </c>
+      <c r="C35">
+        <v>551</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.53086888037976498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>147</v>
+      </c>
+      <c r="C36">
+        <v>553</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0.58803322681263603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>148</v>
+      </c>
+      <c r="C37">
+        <v>135</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>6.8444146941180298E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>148</v>
+      </c>
+      <c r="C38">
+        <v>136</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0.153649250949527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>148</v>
+      </c>
+      <c r="C39">
+        <v>137</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0.15356787383583201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>148</v>
+      </c>
+      <c r="C40">
+        <v>138</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0.103103055779961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>148</v>
+      </c>
+      <c r="C41">
+        <v>139</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>9.2076824566878102E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>148</v>
+      </c>
+      <c r="C42">
+        <v>140</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>-0.109872305693102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>148</v>
+      </c>
+      <c r="C43">
+        <v>165</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>6.7490044513097106E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>148</v>
+      </c>
+      <c r="C44">
+        <v>166</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>9.25756158963148E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>148</v>
+      </c>
+      <c r="C45">
+        <v>167</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0.14214929880529401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>148</v>
+      </c>
+      <c r="C46">
+        <v>169</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>7.3302438479656604E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>148</v>
+      </c>
+      <c r="C47">
+        <v>170</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>6.6803505338245597E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>148</v>
+      </c>
+      <c r="C48">
+        <v>171</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>7.5106765032471504E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>148</v>
+      </c>
+      <c r="C49">
+        <v>1131</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0.127335405189859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>148</v>
+      </c>
+      <c r="C50">
+        <v>1309</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>7.9379197904232701E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>148</v>
+      </c>
+      <c r="C51">
+        <v>1313</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0.25606068833276202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>148</v>
+      </c>
+      <c r="C52">
+        <v>1314</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0.25679660554695799</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>151</v>
+      </c>
+      <c r="C53">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.72407635269412696</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>151</v>
+      </c>
+      <c r="C54">
+        <v>1276</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>0.29147187316812401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>205</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>8.12631896805565E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>205</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>-6.0248845408198998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>205</v>
+      </c>
+      <c r="C57">
+        <v>164</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>-8.4251875515187494E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>205</v>
+      </c>
+      <c r="C58">
+        <v>1104</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>-2.6177204111567799E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>205</v>
+      </c>
+      <c r="C59">
+        <v>1105</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0.36772178688541202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>205</v>
+      </c>
+      <c r="C60">
+        <v>1108</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>-5.4409015138595598E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>205</v>
+      </c>
+      <c r="C61">
+        <v>1109</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>-5.3226702587687601E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>205</v>
+      </c>
+      <c r="C62">
+        <v>1110</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>-2.0934328824693201E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>205</v>
+      </c>
+      <c r="C63">
+        <v>1111</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>-8.4251066888762494E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>205</v>
+      </c>
+      <c r="C64">
+        <v>1115</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0.25416772861070402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>205</v>
+      </c>
+      <c r="C65">
+        <v>1116</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0.30570627875730899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>205</v>
+      </c>
+      <c r="C66">
+        <v>1117</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0.34425073963096697</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>205</v>
+      </c>
+      <c r="C67">
+        <v>1118</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0.41445854976305702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>205</v>
+      </c>
+      <c r="C68">
+        <v>1149</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0.25712543579483599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>205</v>
+      </c>
+      <c r="C69">
+        <v>1151</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0.27202540716631002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>205</v>
+      </c>
+      <c r="C70">
+        <v>1158</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>7.8595550437550205E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>205</v>
+      </c>
+      <c r="C71">
+        <v>1160</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0.271689997530703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>205</v>
+      </c>
+      <c r="C72">
+        <v>1198</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>7.1520929774745001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>205</v>
+      </c>
+      <c r="C73">
+        <v>1213</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0.27964700957569799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>205</v>
+      </c>
+      <c r="C74">
+        <v>1257</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1.52758474230001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>205</v>
+      </c>
+      <c r="C75">
+        <v>1257</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1.52758474230001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>205</v>
+      </c>
+      <c r="C76">
+        <v>1276</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>0.198086264064956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>205</v>
+      </c>
+      <c r="C77">
+        <v>1290</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0.51194756237900496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>205</v>
+      </c>
+      <c r="C78">
+        <v>1290</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0.51194756237900496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>205</v>
+      </c>
+      <c r="C79">
+        <v>1293</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>-2.3028218895900999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>205</v>
+      </c>
+      <c r="C80">
+        <v>1294</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>0.14196798249720699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>205</v>
+      </c>
+      <c r="C81">
+        <v>1297</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0.43240030655020101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>205</v>
+      </c>
+      <c r="C82">
+        <v>1303</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>-0.381871427450095</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>205</v>
+      </c>
+      <c r="C83">
+        <v>1329</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>-0.24531331027224801</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>205</v>
+      </c>
+      <c r="C84">
+        <v>1392</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>8.4738505746257894E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>211</v>
+      </c>
+      <c r="C85">
+        <v>1170</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1.52781186122089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>211</v>
+      </c>
+      <c r="C86">
+        <v>1170</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1.52781186122089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>211</v>
+      </c>
+      <c r="C87">
+        <v>1237</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1.52761712734511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>211</v>
+      </c>
+      <c r="C88">
+        <v>1237</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>1.52761712734511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>211</v>
+      </c>
+      <c r="C89">
+        <v>1266</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1.52928371908354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>211</v>
+      </c>
+      <c r="C90">
+        <v>1266</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>1.52928371908354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91">
+        <v>356</v>
+      </c>
+      <c r="C91">
+        <v>1277</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1.49912322053504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>17</v>
+      </c>
+      <c r="B92">
+        <v>356</v>
+      </c>
+      <c r="C92">
+        <v>1277</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1.49912322053504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93">
+        <v>356</v>
+      </c>
+      <c r="C93">
+        <v>1288</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>-1.52456917346248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>17</v>
+      </c>
+      <c r="B94">
+        <v>356</v>
+      </c>
+      <c r="C94">
+        <v>1288</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>-1.52456917346248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>17</v>
+      </c>
+      <c r="B95">
+        <v>356</v>
+      </c>
+      <c r="C95">
+        <v>1292</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1.49912063741457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>356</v>
+      </c>
+      <c r="C96">
+        <v>1292</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1.49912063741457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>356</v>
+      </c>
+      <c r="C97">
+        <v>1310</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>-1.5236049317826099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98">
+        <v>356</v>
+      </c>
+      <c r="C98">
+        <v>1310</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>-1.5236049317826099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>17</v>
+      </c>
+      <c r="B99">
+        <v>356</v>
+      </c>
+      <c r="C99">
+        <v>1413</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1.4991232286212699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>356</v>
+      </c>
+      <c r="C100">
+        <v>1413</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>1.4991232286212699</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101">
+        <v>356</v>
+      </c>
+      <c r="C101">
+        <v>1419</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1.49912060549743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>17</v>
+      </c>
+      <c r="B102">
+        <v>356</v>
+      </c>
+      <c r="C102">
+        <v>1419</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>1.49912060549743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>18</v>
+      </c>
+      <c r="B103">
+        <v>361</v>
+      </c>
+      <c r="C103">
+        <v>1105</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>9.7764071261331006E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>18</v>
+      </c>
+      <c r="B104">
+        <v>361</v>
+      </c>
+      <c r="C104">
+        <v>1210</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>-0.183872331271032</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>18</v>
+      </c>
+      <c r="B105">
+        <v>361</v>
+      </c>
+      <c r="C105">
+        <v>1214</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>-3.0077963322184102E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>18</v>
+      </c>
+      <c r="B106">
+        <v>361</v>
+      </c>
+      <c r="C106">
+        <v>1276</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>0.22424686205092201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>18</v>
+      </c>
+      <c r="B107">
+        <v>361</v>
+      </c>
+      <c r="C107">
+        <v>1286</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>0.192611029623458</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>18</v>
+      </c>
+      <c r="B108">
+        <v>361</v>
+      </c>
+      <c r="C108">
+        <v>1293</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>4.54007148601097E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109">
+        <v>361</v>
+      </c>
+      <c r="C109">
+        <v>1294</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>0.127715108593663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>18</v>
+      </c>
+      <c r="B110">
+        <v>361</v>
+      </c>
+      <c r="C110">
+        <v>1295</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0.16579087433730599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111">
+        <v>361</v>
+      </c>
+      <c r="C111">
+        <v>1297</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0.10465112684698701</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>18</v>
+      </c>
+      <c r="B112">
+        <v>361</v>
+      </c>
+      <c r="C112">
+        <v>1298</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>0.175203772074079</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>18</v>
+      </c>
+      <c r="B113">
+        <v>361</v>
+      </c>
+      <c r="C113">
+        <v>1299</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1.7618886684914299E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>361</v>
+      </c>
+      <c r="C114">
+        <v>1300</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>-1.73700053926708E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>361</v>
+      </c>
+      <c r="C115">
+        <v>1301</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>0.15445925839282701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>361</v>
+      </c>
+      <c r="C116">
+        <v>1302</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>-6.7656016368908597E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117">
+        <v>361</v>
+      </c>
+      <c r="C117">
+        <v>1303</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>0.13549881003876699</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>361</v>
+      </c>
+      <c r="C118">
+        <v>1304</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>-3.0398566284776499E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>361</v>
+      </c>
+      <c r="C119">
+        <v>1305</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>-4.2836738741706702E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>361</v>
+      </c>
+      <c r="C120">
+        <v>1306</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>0.17144717119208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>361</v>
+      </c>
+      <c r="C121">
+        <v>1307</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>-1.33942603794871E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>361</v>
+      </c>
+      <c r="C122">
+        <v>1308</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>4.2101709819049898E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>19</v>
+      </c>
+      <c r="B123">
+        <v>362</v>
+      </c>
+      <c r="C123">
+        <v>167</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>-0.13932672944561</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>19</v>
+      </c>
+      <c r="B124">
+        <v>362</v>
+      </c>
+      <c r="C124">
+        <v>1274</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>-1.29600060024389</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>19</v>
+      </c>
+      <c r="B125">
+        <v>362</v>
+      </c>
+      <c r="C125">
+        <v>1274</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>-1.29600060024389</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>19</v>
+      </c>
+      <c r="B126">
+        <v>362</v>
+      </c>
+      <c r="C126">
+        <v>1279</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>-0.68936304603745002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127">
+        <v>362</v>
+      </c>
+      <c r="C127">
+        <v>1279</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>-0.68936304603745002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128">
+        <v>362</v>
+      </c>
+      <c r="C128">
+        <v>1288</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>0.31365055801337899</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>19</v>
+      </c>
+      <c r="B129">
+        <v>362</v>
+      </c>
+      <c r="C129">
+        <v>1310</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0.62784222970762904</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130">
+        <v>362</v>
+      </c>
+      <c r="C130">
+        <v>1310</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>0.62784222970762904</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>19</v>
+      </c>
+      <c r="B131">
+        <v>362</v>
+      </c>
+      <c r="C131">
+        <v>1311</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>-0.221250587639821</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>19</v>
+      </c>
+      <c r="B132">
+        <v>362</v>
+      </c>
+      <c r="C132">
+        <v>1312</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>0.61784326004198897</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>19</v>
+      </c>
+      <c r="B133">
+        <v>362</v>
+      </c>
+      <c r="C133">
+        <v>1312</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>0.61784326004198897</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>19</v>
+      </c>
+      <c r="B134">
+        <v>362</v>
+      </c>
+      <c r="C134">
+        <v>1313</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0.620051080424593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>19</v>
+      </c>
+      <c r="B135">
+        <v>362</v>
+      </c>
+      <c r="C135">
+        <v>1313</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>0.620051080424593</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>19</v>
+      </c>
+      <c r="B136">
+        <v>362</v>
+      </c>
+      <c r="C136">
+        <v>1314</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>0.62292151861468803</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>19</v>
+      </c>
+      <c r="B137">
+        <v>362</v>
+      </c>
+      <c r="C137">
+        <v>1314</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>0.62292151861468803</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138">
+        <v>515</v>
+      </c>
+      <c r="C138">
+        <v>1287</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>1.23532065698445E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>515</v>
+      </c>
+      <c r="C139">
+        <v>1315</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>-9.7519072280288499E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>515</v>
+      </c>
+      <c r="C140">
+        <v>1316</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>-0.13292138875568499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>515</v>
+      </c>
+      <c r="C141">
+        <v>1317</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>-0.140549885029702</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>515</v>
+      </c>
+      <c r="C142">
+        <v>1318</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>-0.216832085257853</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>515</v>
+      </c>
+      <c r="C143">
+        <v>1319</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>-0.188165690924395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144">
+        <v>515</v>
+      </c>
+      <c r="C144">
+        <v>1320</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>-0.22108855448824799</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145">
+        <v>515</v>
+      </c>
+      <c r="C145">
+        <v>1321</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>3.2726326663095398E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>20</v>
+      </c>
+      <c r="B146">
+        <v>515</v>
+      </c>
+      <c r="C146">
+        <v>1322</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>-2.6122200090609799E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>20</v>
+      </c>
+      <c r="B147">
+        <v>515</v>
+      </c>
+      <c r="C147">
+        <v>1323</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>0.226919401776981</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>515</v>
+      </c>
+      <c r="C148">
+        <v>1324</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>-5.3824034491034199E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>515</v>
+      </c>
+      <c r="C149">
+        <v>1333</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>-0.135027667617625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>515</v>
+      </c>
+      <c r="C150">
+        <v>1334</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>-5.3537806318740201E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>515</v>
+      </c>
+      <c r="C151">
+        <v>1336</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>-0.10363451780473699</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>515</v>
+      </c>
+      <c r="C152">
+        <v>1338</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>-0.15295047821581401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>20</v>
+      </c>
+      <c r="B153">
+        <v>515</v>
+      </c>
+      <c r="C153">
+        <v>1340</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>-0.13816788464299501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>20</v>
+      </c>
+      <c r="B154">
+        <v>515</v>
+      </c>
+      <c r="C154">
+        <v>1341</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>-0.13487588235036299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>20</v>
+      </c>
+      <c r="B155">
+        <v>515</v>
+      </c>
+      <c r="C155">
+        <v>1412</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>-6.2373498122073601E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>20</v>
+      </c>
+      <c r="B156">
+        <v>515</v>
+      </c>
+      <c r="C156">
+        <v>1416</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>-0.123628655294166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>20</v>
+      </c>
+      <c r="B157">
+        <v>515</v>
+      </c>
+      <c r="C157">
+        <v>1417</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>9.87365600397348E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>20</v>
+      </c>
+      <c r="B158">
+        <v>515</v>
+      </c>
+      <c r="C158">
+        <v>1432</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>-0.14512973695606499</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>